--- a/file/LaporanTransaksi.xlsx
+++ b/file/LaporanTransaksi.xlsx
@@ -339,7 +339,7 @@
         <v>Jumlah Transaksi:</v>
       </c>
       <c r="B2">
-        <v>45000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="3"/>
@@ -371,7 +371,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="str">
-        <v>2020-05-01 00:00:00 +0000 UTC</v>
+        <v>2020-06-28 00:00:00 +0000 UTC</v>
       </c>
       <c r="D5" t="str">
         <v>joni</v>
@@ -391,17 +391,15 @@
         <v>2</v>
       </c>
       <c r="B6" t="str">
-        <v>2020-05-01 00:00:00 +0000 UTC</v>
+        <v>2020-01-01 00:00:00 +0000 UTC</v>
       </c>
       <c r="D6" t="str"/>
-      <c r="E6" t="str">
-        <v>transaksi tanpa customer</v>
-      </c>
-      <c r="F6">
-        <v>20000</v>
-      </c>
-      <c r="G6" t="str">
+      <c r="E6" t="str"/>
+      <c r="F6" t="str">
         <v>-</v>
+      </c>
+      <c r="G6">
+        <v>5000</v>
       </c>
     </row>
     <row r="7">
@@ -409,27 +407,33 @@
         <v>3</v>
       </c>
       <c r="B7" t="str">
-        <v>2020-01-01 00:00:00 +0000 UTC</v>
+        <v>2020-06-06 00:00:00 +0000 UTC</v>
       </c>
       <c r="D7" t="str"/>
-      <c r="E7" t="str"/>
+      <c r="E7" t="str">
+        <v>transaksi tanpa customer</v>
+      </c>
       <c r="F7">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="G7" t="str">
         <v>-</v>
       </c>
     </row>
-    <row r="8"/>
-    <row r="9">
-      <c r="E9" t="str">
-        <v>Total</v>
-      </c>
-      <c r="F9">
-        <v>45000</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
+    <row r="8">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="str">
+        <v>2020-07-08 00:00:00 +0000 UTC</v>
+      </c>
+      <c r="D8" t="str"/>
+      <c r="E8" t="str"/>
+      <c r="F8">
+        <v>5000</v>
+      </c>
+      <c r="G8" t="str">
+        <v>-</v>
       </c>
     </row>
   </sheetData>
